--- a/biology/Zoologie/Hybosida_lucida/Hybosida_lucida.xlsx
+++ b/biology/Zoologie/Hybosida_lucida/Hybosida_lucida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hybosida lucida est une espèce d'araignées aranéomorphes de la famille des Palpimanidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hybosida lucida est une espèce d'araignées aranéomorphes de la famille des Palpimanidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Seychelles[1]. Elle se rencontre sur Mahé[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Seychelles. Elle se rencontre sur Mahé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Simon, 1898 : Études arachnologiques. 29e Mémoire. XLVI. Arachnides recueillis en 1895 par M. le Dr A. Brauer (de l'Université de Marburg) aux îles Séchelles. Annales de la Société Entomologique de France, vol. 66, p. 370-388 (texte intégral).</t>
         </is>
